--- a/biology/Botanique/Batrachospermum/Batrachospermum.xlsx
+++ b/biology/Botanique/Batrachospermum/Batrachospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Batrachospermum est un genre d’algues rouges de l’ordre des Batrachospermales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Batrachospermum, est construit à partir du préfixe "batrach-", grenouille (grec βατρακοσ / batrakos), et du suffixe "-sperm", « semence ; graine » (grec σπερμ / sperm) ; littéralement « semence de grenouille » ; en effet, selon Charles d'Orbigny : « l'espèce la plus commune... B. moniliforme est remarquable par sa consistance gélatineuse et les paquets globuleux de ses ramules qui se trouvant espacés assez également sur les filaments principaux lui donnent quelque ressemblance avec le frai de Grenouille ainsi que l'exprime l'étymologie du nom de ce genre »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Batrachospermum, est construit à partir du préfixe "batrach-", grenouille (grec βατρακοσ / batrakos), et du suffixe "-sperm", « semence ; graine » (grec σπερμ / sperm) ; littéralement « semence de grenouille » ; en effet, selon Charles d'Orbigny : « l'espèce la plus commune... B. moniliforme est remarquable par sa consistance gélatineuse et les paquets globuleux de ses ramules qui se trouvant espacés assez également sur les filaments principaux lui donnent quelque ressemblance avec le frai de Grenouille ainsi que l'exprime l'étymologie du nom de ce genre ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d’espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (20.01.2018)[4], au moins les espèces suivantes sont valides :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (20.01.2018), au moins les espèces suivantes sont valides :
 Batrachospermum aestivale Bory
 Batrachospermum africanum Rabenhorst
 Batrachospermum alcyonideum Bory
